--- a/data/excel_doc/sampleprocessing_id_lims.xlsx
+++ b/data/excel_doc/sampleprocessing_id_lims.xlsx
@@ -446,12 +446,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GS2308140016</t>
+          <t>GS2308150097</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BA238D0016-J022</t>
+          <t>BA238E0078-J022</t>
         </is>
       </c>
     </row>

--- a/data/excel_doc/sampleprocessing_id_lims.xlsx
+++ b/data/excel_doc/sampleprocessing_id_lims.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,18 +443,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>GS2308150097</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>BA238E0078-J022</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/excel_doc/sampleprocessing_id_lims.xlsx
+++ b/data/excel_doc/sampleprocessing_id_lims.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,6 +443,18 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>GS2309050066</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>BA23950066-J022</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/excel_doc/sampleprocessing_id_lims.xlsx
+++ b/data/excel_doc/sampleprocessing_id_lims.xlsx
@@ -446,12 +446,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GS2309050066</t>
+          <t>GS2309050073</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BA23950066-J022</t>
+          <t>BA23950073-J022</t>
         </is>
       </c>
     </row>

--- a/data/excel_doc/sampleprocessing_id_lims.xlsx
+++ b/data/excel_doc/sampleprocessing_id_lims.xlsx
@@ -446,12 +446,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GS2309050073</t>
+          <t>GS2309060005</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BA23950073-J022</t>
+          <t>BA23960005-J022</t>
         </is>
       </c>
     </row>

--- a/data/excel_doc/sampleprocessing_id_lims.xlsx
+++ b/data/excel_doc/sampleprocessing_id_lims.xlsx
@@ -446,12 +446,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GS2309060005</t>
+          <t>GS2309070037</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BA23960005-J022</t>
+          <t>BA23970031-J022</t>
         </is>
       </c>
     </row>

--- a/data/excel_doc/sampleprocessing_id_lims.xlsx
+++ b/data/excel_doc/sampleprocessing_id_lims.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,18 +443,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>GS2309070037</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>BA23970031-J022</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/excel_doc/sampleprocessing_id_lims.xlsx
+++ b/data/excel_doc/sampleprocessing_id_lims.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,6 +443,18 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>GS2309080093</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>BA23980093-J022</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/excel_doc/sampleprocessing_id_lims.xlsx
+++ b/data/excel_doc/sampleprocessing_id_lims.xlsx
@@ -446,12 +446,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GS2309080093</t>
+          <t>GS2309110002</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BA23980093-J022</t>
+          <t>BA239A0002-J022</t>
         </is>
       </c>
     </row>

--- a/data/excel_doc/sampleprocessing_id_lims.xlsx
+++ b/data/excel_doc/sampleprocessing_id_lims.xlsx
@@ -446,12 +446,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GS2309110002</t>
+          <t>GS2309120058</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BA239A0002-J022</t>
+          <t>BA239B0058-J022</t>
         </is>
       </c>
     </row>

--- a/data/excel_doc/sampleprocessing_id_lims.xlsx
+++ b/data/excel_doc/sampleprocessing_id_lims.xlsx
@@ -446,12 +446,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GS2309120058</t>
+          <t>GS2309150035</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BA239B0058-J022</t>
+          <t>BA239E0035-J022</t>
         </is>
       </c>
     </row>

--- a/data/excel_doc/sampleprocessing_id_lims.xlsx
+++ b/data/excel_doc/sampleprocessing_id_lims.xlsx
@@ -446,12 +446,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GS2309150035</t>
+          <t>GS2309180003</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BA239E0035-J022</t>
+          <t>BA239H0003-J022</t>
         </is>
       </c>
     </row>

--- a/data/excel_doc/sampleprocessing_id_lims.xlsx
+++ b/data/excel_doc/sampleprocessing_id_lims.xlsx
@@ -446,12 +446,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GS2309180003</t>
+          <t>GS2401150006</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BA239H0003-J022</t>
+          <t>BA241E0006-J022</t>
         </is>
       </c>
     </row>

--- a/data/excel_doc/sampleprocessing_id_lims.xlsx
+++ b/data/excel_doc/sampleprocessing_id_lims.xlsx
@@ -446,12 +446,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GS2401150006</t>
+          <t>GS2310270045</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BA241E0006-J022</t>
+          <t>BA230S0045-J022</t>
         </is>
       </c>
     </row>

--- a/data/excel_doc/sampleprocessing_id_lims.xlsx
+++ b/data/excel_doc/sampleprocessing_id_lims.xlsx
@@ -446,12 +446,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GS2310270045</t>
+          <t>GS2401160008</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BA230S0045-J022</t>
+          <t>BA241F0008-J022</t>
         </is>
       </c>
     </row>

--- a/data/excel_doc/sampleprocessing_id_lims.xlsx
+++ b/data/excel_doc/sampleprocessing_id_lims.xlsx
@@ -446,12 +446,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GS2401160008</t>
+          <t>GS2404290626</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BA241F0008-J022</t>
+          <t>BA244U0626-J022</t>
         </is>
       </c>
     </row>

--- a/data/excel_doc/sampleprocessing_id_lims.xlsx
+++ b/data/excel_doc/sampleprocessing_id_lims.xlsx
@@ -446,12 +446,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GS2404290626</t>
+          <t>GS2405210046</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BA244U0626-J022</t>
+          <t>BA245L0046-J022</t>
         </is>
       </c>
     </row>
